--- a/medicine/Psychotrope/Akbar_(thé)/Akbar_(thé).xlsx
+++ b/medicine/Psychotrope/Akbar_(thé)/Akbar_(thé).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Akbar_(th%C3%A9)</t>
+          <t>Akbar_(thé)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Akbar est une société de thé appartenant à Akbar Brothers Ltd.[1] et basé au Sri Lanka. La société produit une gamme de sachets de thé en vrac : thé noir, thé vert, thés aromatisés et tisanes. Akbar Brothers est le plus grand exportateur de thé du Sri Lanka[2],[3]. 
-La marque Alghazaleen Tea d’Akbar Brothers est très populaire en Jordanie, en Iran et en Afghanistan[4].
+Akbar est une société de thé appartenant à Akbar Brothers Ltd. et basé au Sri Lanka. La société produit une gamme de sachets de thé en vrac : thé noir, thé vert, thés aromatisés et tisanes. Akbar Brothers est le plus grand exportateur de thé du Sri Lanka,. 
+La marque Alghazaleen Tea d’Akbar Brothers est très populaire en Jordanie, en Iran et en Afghanistan.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Akbar_(th%C3%A9)</t>
+          <t>Akbar_(thé)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1864, Cheikh Hebtulabhoy (1834-1897) émigre de l'Inde au Sri Lanka et crée une société d'importation et d'exportation de produits alimentaires basée à Pettah. Son fils, Tyeabally Shaikh Hebtulabhoy (1888-1928), créa la compagnie de thé Hebtulabhoy &amp; Company Limited, et a commencé à expédier du thé à l'étranger en 1907.
 En 1969, les petits-fils de Cheikh Hebtulabhoy, Abbasally, Abidally et Inayetally Akbarally, ont démissionné de l'entreprise familiale Hebtulabhoys &amp; Co. et ont fondé Akbar Brothers. En moins de trois ans, Akbar Brothers exportait vers les principaux marchés du thé du Moyen-Orient, ainsi que d’autres régions du monde. 
